--- a/test/testcases/testcase21_mysql_csv_match.xlsx
+++ b/test/testcases/testcase21_mysql_csv_match.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941FA69-3EC4-4606-B9A5-21031BE4F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA770CD-E352-4419-8DA9-B6D8663B69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>raw_mysql_database_connection</t>
   </si>
   <si>
-    <t>likeobjectcompare</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -180,10 +177,13 @@
     <t>patients_target.csv</t>
   </si>
   <si>
-    <t>/app/test/s2t/s2t_21_mysql_csv_match</t>
-  </si>
-  <si>
     <t>source_to_stage</t>
+  </si>
+  <si>
+    <t>s2tcompare</t>
+  </si>
+  <si>
+    <t>/app/test/s2t/s2t_21_mysql_csv_match.xlsx</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
